--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_683.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_683.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g33091-d1146967-Reviews-Rodeway_Inn_Signal_Hill-Signal_Hill_California.html</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>16</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Rodeway-Inn-Signal-Hill.h1990305.Hotel-Information?chkin=6%2F24%2F2018&amp;chkout=6%2F25%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1529205211128&amp;cancellable=false&amp;regionId=178280&amp;vip=false&amp;c=f84f14bb-50c6-4358-a2e1-91248084a59f&amp;mctc=9&amp;exp_dp=89.95&amp;exp_ts=1529205211722&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_683.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_683.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="113">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,217 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/10/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33091-d1146967-r342624720-Rodeway_Inn_Signal_Hill-Signal_Hill_California.html</t>
+  </si>
+  <si>
+    <t>33091</t>
+  </si>
+  <si>
+    <t>1146967</t>
+  </si>
+  <si>
+    <t>342624720</t>
+  </si>
+  <si>
+    <t>01/25/2016</t>
+  </si>
+  <si>
+    <t>We were expecting more from a Rodeway Inn</t>
+  </si>
+  <si>
+    <t>The room was not very clean.  There was a paper towel hanging from the peep-hole, an old toothbrush in the window of the bathroom and the smoke detector had been removed from the room.  It looked like a new a/c unit had been installed but it was smaller than the old one so there was space all around the unit.  Instead of sealing it, a small piece of foam was pushed around the opening.  The street noise was so loud we couldn't sleep.  It sounded like we had left the sliding glass door open but it was just the noise seeping in around the a/c opening. The person working the counter could not find our reservation even though we had a print out of the online reservation and payment.  It is a good thing we had prepaid because we went to checkout at 7:30 am and the office was locked and closed even though the sign said OPEN.  We won't be coming back.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>The room was not very clean.  There was a paper towel hanging from the peep-hole, an old toothbrush in the window of the bathroom and the smoke detector had been removed from the room.  It looked like a new a/c unit had been installed but it was smaller than the old one so there was space all around the unit.  Instead of sealing it, a small piece of foam was pushed around the opening.  The street noise was so loud we couldn't sleep.  It sounded like we had left the sliding glass door open but it was just the noise seeping in around the a/c opening. The person working the counter could not find our reservation even though we had a print out of the online reservation and payment.  It is a good thing we had prepaid because we went to checkout at 7:30 am and the office was locked and closed even though the sign said OPEN.  We won't be coming back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33091-d1146967-r256278914-Rodeway_Inn_Signal_Hill-Signal_Hill_California.html</t>
+  </si>
+  <si>
+    <t>256278914</t>
+  </si>
+  <si>
+    <t>02/24/2015</t>
+  </si>
+  <si>
+    <t>Needs improvement</t>
+  </si>
+  <si>
+    <t>This hotel needs a major renovation.The rooms aren't super big.New front and bathroom doors are needed.Our room had no smoke detector.Crummy cable reception.Slow choppy wifi.The tv was big enough for the room but they need more and better channels.Sliding door to balcony was broken.the ac/heater was incredibly noisy and kept going on and off all the time.Nearly all the furniture had been drawn on and carved into. Chairs had stains all over.Sliding patio door and bathroom door were broken.Carpet needs a good shampoo.All the weather stripping at the front door had been torn off making the room drafty.the bed was not too bad and they gave you adequate blankets.Gave 2 stars for the staff being friendly and the view of long beach was nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>This hotel needs a major renovation.The rooms aren't super big.New front and bathroom doors are needed.Our room had no smoke detector.Crummy cable reception.Slow choppy wifi.The tv was big enough for the room but they need more and better channels.Sliding door to balcony was broken.the ac/heater was incredibly noisy and kept going on and off all the time.Nearly all the furniture had been drawn on and carved into. Chairs had stains all over.Sliding patio door and bathroom door were broken.Carpet needs a good shampoo.All the weather stripping at the front door had been torn off making the room drafty.the bed was not too bad and they gave you adequate blankets.Gave 2 stars for the staff being friendly and the view of long beach was nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33091-d1146967-r223021242-Rodeway_Inn_Signal_Hill-Signal_Hill_California.html</t>
+  </si>
+  <si>
+    <t>223021242</t>
+  </si>
+  <si>
+    <t>08/19/2014</t>
+  </si>
+  <si>
+    <t>WORST EXPERIENCE EVER</t>
+  </si>
+  <si>
+    <t>I used points to stay here as I have accumulated allot and it was for one night.  I went to check in and it seemed the desk person was confused.  She had to get on the phone and call someone.  I seemed that either they were not expecting me or they were not sure what to do with me.  She gave me a room at the very end of the building .  The elevator had scratches all over it.  The fire extinguisher box near the elevator had no fire extinguisher.  I got to the room and it was marginal.  Paint pealing and chipped.  A/C had dust and what appeared to be light mold in the vent area(it is mounted in the wall near the arcadia door) To turn on the A/C, kind of an old unit, you had to find the on/off switch at the base of where it plugs into the wall.  It worked OK but had a funny smell. Oh, and by the way they do not have coffee in the lobby till 7 AM so don't expect any.
+The shower had traces of black mold, calcium build up on the shower head and the train area could have used some cleaning.  The microwave was missing the glass plate to put stuff of so it was pretty much useless.  It faces traffic on the street so it is a bit noisy and occasionally emergency vehicle come by with...I used points to stay here as I have accumulated allot and it was for one night.  I went to check in and it seemed the desk person was confused.  She had to get on the phone and call someone.  I seemed that either they were not expecting me or they were not sure what to do with me.  She gave me a room at the very end of the building .  The elevator had scratches all over it.  The fire extinguisher box near the elevator had no fire extinguisher.  I got to the room and it was marginal.  Paint pealing and chipped.  A/C had dust and what appeared to be light mold in the vent area(it is mounted in the wall near the arcadia door) To turn on the A/C, kind of an old unit, you had to find the on/off switch at the base of where it plugs into the wall.  It worked OK but had a funny smell. Oh, and by the way they do not have coffee in the lobby till 7 AM so don't expect any.The shower had traces of black mold, calcium build up on the shower head and the train area could have used some cleaning.  The microwave was missing the glass plate to put stuff of so it was pretty much useless.  It faces traffic on the street so it is a bit noisy and occasionally emergency vehicle come by with sirens blaring.  The blanket had a number written on it, sort of like a prison.  The bed was ok and appeared clean.I was up at 5 AM to the discovery that the local police had the place surrounded and had I been parked in back I might not have been able to leave.It seems that instead of giving a Gold Member a nice room, since they had to provide it for free they found the worst room.  So imagine how they treat everyday customers.  WILL NEVER STAY HERE AGAIN!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>I used points to stay here as I have accumulated allot and it was for one night.  I went to check in and it seemed the desk person was confused.  She had to get on the phone and call someone.  I seemed that either they were not expecting me or they were not sure what to do with me.  She gave me a room at the very end of the building .  The elevator had scratches all over it.  The fire extinguisher box near the elevator had no fire extinguisher.  I got to the room and it was marginal.  Paint pealing and chipped.  A/C had dust and what appeared to be light mold in the vent area(it is mounted in the wall near the arcadia door) To turn on the A/C, kind of an old unit, you had to find the on/off switch at the base of where it plugs into the wall.  It worked OK but had a funny smell. Oh, and by the way they do not have coffee in the lobby till 7 AM so don't expect any.
+The shower had traces of black mold, calcium build up on the shower head and the train area could have used some cleaning.  The microwave was missing the glass plate to put stuff of so it was pretty much useless.  It faces traffic on the street so it is a bit noisy and occasionally emergency vehicle come by with...I used points to stay here as I have accumulated allot and it was for one night.  I went to check in and it seemed the desk person was confused.  She had to get on the phone and call someone.  I seemed that either they were not expecting me or they were not sure what to do with me.  She gave me a room at the very end of the building .  The elevator had scratches all over it.  The fire extinguisher box near the elevator had no fire extinguisher.  I got to the room and it was marginal.  Paint pealing and chipped.  A/C had dust and what appeared to be light mold in the vent area(it is mounted in the wall near the arcadia door) To turn on the A/C, kind of an old unit, you had to find the on/off switch at the base of where it plugs into the wall.  It worked OK but had a funny smell. Oh, and by the way they do not have coffee in the lobby till 7 AM so don't expect any.The shower had traces of black mold, calcium build up on the shower head and the train area could have used some cleaning.  The microwave was missing the glass plate to put stuff of so it was pretty much useless.  It faces traffic on the street so it is a bit noisy and occasionally emergency vehicle come by with sirens blaring.  The blanket had a number written on it, sort of like a prison.  The bed was ok and appeared clean.I was up at 5 AM to the discovery that the local police had the place surrounded and had I been parked in back I might not have been able to leave.It seems that instead of giving a Gold Member a nice room, since they had to provide it for free they found the worst room.  So imagine how they treat everyday customers.  WILL NEVER STAY HERE AGAIN!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33091-d1146967-r191717768-Rodeway_Inn_Signal_Hill-Signal_Hill_California.html</t>
+  </si>
+  <si>
+    <t>191717768</t>
+  </si>
+  <si>
+    <t>01/22/2014</t>
+  </si>
+  <si>
+    <t>A bargain, but at what cost?</t>
+  </si>
+  <si>
+    <t>I just spent four nights at the Rodeway Inn in Signal Hill while in Long Beach for a long, long weekend. While the room itself was basically acceptable, the hotel as a whole is dirty looking and reflects an overall lack of pride in this property.  Two-inch thick bulletproof glass greets you in the lobby. Nothing says "welcome" like bulletproof glass.  It's interesting that management is concerned about safety in the lobby, but there are no security chains on the room doors. There's a lot of peeling paint on the building and in the rooms.  My king-size bed was basically comfortable, but the sheets were very thin and my non-smoking room had a constant cloud of cigarette and marijuana smoke wafting in from other rooms. The air conditioner worked, but was extremely loud.In the bathroom, there were plenty of towels, but each day there was at least one towel that did not appear to be clean. They had makeup stains or crusted material on them.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>I just spent four nights at the Rodeway Inn in Signal Hill while in Long Beach for a long, long weekend. While the room itself was basically acceptable, the hotel as a whole is dirty looking and reflects an overall lack of pride in this property.  Two-inch thick bulletproof glass greets you in the lobby. Nothing says "welcome" like bulletproof glass.  It's interesting that management is concerned about safety in the lobby, but there are no security chains on the room doors. There's a lot of peeling paint on the building and in the rooms.  My king-size bed was basically comfortable, but the sheets were very thin and my non-smoking room had a constant cloud of cigarette and marijuana smoke wafting in from other rooms. The air conditioner worked, but was extremely loud.In the bathroom, there were plenty of towels, but each day there was at least one towel that did not appear to be clean. They had makeup stains or crusted material on them.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33091-d1146967-r183294269-Rodeway_Inn_Signal_Hill-Signal_Hill_California.html</t>
+  </si>
+  <si>
+    <t>183294269</t>
+  </si>
+  <si>
+    <t>11/02/2013</t>
+  </si>
+  <si>
+    <t>Functional</t>
+  </si>
+  <si>
+    <t>Stayed here 4 nights while on a business trip. Overall, although the place looks a bit tired and rundown on outside, it is fairly comfortable inside. The room was fair sized with table to work at and internet worked, although not superfast. Although it is on a busy street and I am sensitive to noise, with A/C on I barely heard the traffic.The room was clean, although certainly not new and did smell a bit of smoke (or something) even though it was nonsmoking room.The fridge was plenty big (although no freezer section), did not try MW, but the phone did not work. These days, that is not so important but perhaps indicative of maintenance level. Another technical problem was that when I paid (in cash) upon arrival they could not give me a receipt because their printer was broken. By the time I left, it was still broken but they did get me an electronic version. Since a new printer can be had for about $100 and it seems rather important for a business like this does not give impression that they are investing much into the place.So the motel was OK, but nothing special, and less than half price of a hotel room downtown.If I were in Long Beach again may try one of the places closer in (further west and closer to Long Beach Ave), there seem to be quite a few.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Stayed here 4 nights while on a business trip. Overall, although the place looks a bit tired and rundown on outside, it is fairly comfortable inside. The room was fair sized with table to work at and internet worked, although not superfast. Although it is on a busy street and I am sensitive to noise, with A/C on I barely heard the traffic.The room was clean, although certainly not new and did smell a bit of smoke (or something) even though it was nonsmoking room.The fridge was plenty big (although no freezer section), did not try MW, but the phone did not work. These days, that is not so important but perhaps indicative of maintenance level. Another technical problem was that when I paid (in cash) upon arrival they could not give me a receipt because their printer was broken. By the time I left, it was still broken but they did get me an electronic version. Since a new printer can be had for about $100 and it seems rather important for a business like this does not give impression that they are investing much into the place.So the motel was OK, but nothing special, and less than half price of a hotel room downtown.If I were in Long Beach again may try one of the places closer in (further west and closer to Long Beach Ave), there seem to be quite a few.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33091-d1146967-r169548954-Rodeway_Inn_Signal_Hill-Signal_Hill_California.html</t>
+  </si>
+  <si>
+    <t>169548954</t>
+  </si>
+  <si>
+    <t>07/28/2013</t>
+  </si>
+  <si>
+    <t>Maintenance Lacking &amp; Other Things! See below!</t>
+  </si>
+  <si>
+    <t>It was a really busy weekend, mid-summer, with the surfing championships too, so the town, and all around were full. As a last resort I stayed here on the 2nd floor from 7/27-7/28-13, and it has big ups and downs. Ups~Very clean room! Fairly quiet section of a really busy street, except for the usual showing off of loud muffler cars, on the PCH. Good A/C wall unit~loud enough so it drowned out the cars. Less traffic on weekends, as mostly weekday businesses in this area. Large 42" Visio LCD TV, granite sink, new toilet, OK tub, nice carpet, large room refrigerator, microwave, action bed for fun. 
+Down~Broken/missing smoke detector. No security chain on door! No "Do not disturb" sign in the room! (*Without it the maid kept bugging us to clean the room on our first day at 0930 &amp; 1000 hrs. Too long a wait for hot water on 2nd floor,`it has no recirculator pump, or they turned it off. Rotten water saver shower head, which made it next to impossible to wash shampoo out of my ladies hair, or to even feel more than a trickle! No fitted sheets or clips to hold them on, so they keep coming off. A real uncomfortable pain to sleep or have fun. Pay for ice~$0.50 for small room size ice bucket. Bad fight back springy foam pillows~A little better than the horrible ones in the Choice Hotels chain. (*Went out...It was a really busy weekend, mid-summer, with the surfing championships too, so the town, and all around were full. As a last resort I stayed here on the 2nd floor from 7/27-7/28-13, and it has big ups and downs. Ups~Very clean room! Fairly quiet section of a really busy street, except for the usual showing off of loud muffler cars, on the PCH. Good A/C wall unit~loud enough so it drowned out the cars. Less traffic on weekends, as mostly weekday businesses in this area. Large 42" Visio LCD TV, granite sink, new toilet, OK tub, nice carpet, large room refrigerator, microwave, action bed for fun. Down~Broken/missing smoke detector. No security chain on door! No "Do not disturb" sign in the room! (*Without it the maid kept bugging us to clean the room on our first day at 0930 &amp; 1000 hrs. Too long a wait for hot water on 2nd floor,`it has no recirculator pump, or they turned it off. Rotten water saver shower head, which made it next to impossible to wash shampoo out of my ladies hair, or to even feel more than a trickle! No fitted sheets or clips to hold them on, so they keep coming off. A real uncomfortable pain to sleep or have fun. Pay for ice~$0.50 for small room size ice bucket. Bad fight back springy foam pillows~A little better than the horrible ones in the Choice Hotels chain. (*Went out to IKEA and bought their 90% feather &amp; 10% down for $12.) Hard spring mattress which made for a long two days on bad shoulders. No pen and paper, no kleenex, no hair dryer, broken back roller on sliding patio door. (*Patio is worthless, as it is too small for anything.) Worn out door roller "SCREECHING" on their Otis elevator, no exhaust fan in bathroom, no alarm clock, no heated pool. ''HORRIBLE COFFEE" which was their only beverage, or food. Would I stay here again? It is better than the "YMCA" but even motel 6 has better staff checking for needed repairs. This hotel needs a big dose of quality control! Granted it is managed by Indian's who may not be that picky, but as a former Master Inspector of Structures, come on, "Common Sense tells you when something is broken, write it down to fix it, and do it!" Give your cleaning crew a maintenance sheet to-do-list like the big hotels do. You can't depend on the guests to take valuable time out of their vacation or business trip to come down and complain about stuff that you should have fixed. Especially guest safety, with only a hole to remind one of a removed/broken chain, with no backup locking.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>Ankit4455, General Manager at Rodeway Inn Signal Hill, responded to this reviewResponded July 30, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 30, 2013</t>
+  </si>
+  <si>
+    <t>It was a really busy weekend, mid-summer, with the surfing championships too, so the town, and all around were full. As a last resort I stayed here on the 2nd floor from 7/27-7/28-13, and it has big ups and downs. Ups~Very clean room! Fairly quiet section of a really busy street, except for the usual showing off of loud muffler cars, on the PCH. Good A/C wall unit~loud enough so it drowned out the cars. Less traffic on weekends, as mostly weekday businesses in this area. Large 42" Visio LCD TV, granite sink, new toilet, OK tub, nice carpet, large room refrigerator, microwave, action bed for fun. 
+Down~Broken/missing smoke detector. No security chain on door! No "Do not disturb" sign in the room! (*Without it the maid kept bugging us to clean the room on our first day at 0930 &amp; 1000 hrs. Too long a wait for hot water on 2nd floor,`it has no recirculator pump, or they turned it off. Rotten water saver shower head, which made it next to impossible to wash shampoo out of my ladies hair, or to even feel more than a trickle! No fitted sheets or clips to hold them on, so they keep coming off. A real uncomfortable pain to sleep or have fun. Pay for ice~$0.50 for small room size ice bucket. Bad fight back springy foam pillows~A little better than the horrible ones in the Choice Hotels chain. (*Went out...It was a really busy weekend, mid-summer, with the surfing championships too, so the town, and all around were full. As a last resort I stayed here on the 2nd floor from 7/27-7/28-13, and it has big ups and downs. Ups~Very clean room! Fairly quiet section of a really busy street, except for the usual showing off of loud muffler cars, on the PCH. Good A/C wall unit~loud enough so it drowned out the cars. Less traffic on weekends, as mostly weekday businesses in this area. Large 42" Visio LCD TV, granite sink, new toilet, OK tub, nice carpet, large room refrigerator, microwave, action bed for fun. Down~Broken/missing smoke detector. No security chain on door! No "Do not disturb" sign in the room! (*Without it the maid kept bugging us to clean the room on our first day at 0930 &amp; 1000 hrs. Too long a wait for hot water on 2nd floor,`it has no recirculator pump, or they turned it off. Rotten water saver shower head, which made it next to impossible to wash shampoo out of my ladies hair, or to even feel more than a trickle! No fitted sheets or clips to hold them on, so they keep coming off. A real uncomfortable pain to sleep or have fun. Pay for ice~$0.50 for small room size ice bucket. Bad fight back springy foam pillows~A little better than the horrible ones in the Choice Hotels chain. (*Went out to IKEA and bought their 90% feather &amp; 10% down for $12.) Hard spring mattress which made for a long two days on bad shoulders. No pen and paper, no kleenex, no hair dryer, broken back roller on sliding patio door. (*Patio is worthless, as it is too small for anything.) Worn out door roller "SCREECHING" on their Otis elevator, no exhaust fan in bathroom, no alarm clock, no heated pool. ''HORRIBLE COFFEE" which was their only beverage, or food. Would I stay here again? It is better than the "YMCA" but even motel 6 has better staff checking for needed repairs. This hotel needs a big dose of quality control! Granted it is managed by Indian's who may not be that picky, but as a former Master Inspector of Structures, come on, "Common Sense tells you when something is broken, write it down to fix it, and do it!" Give your cleaning crew a maintenance sheet to-do-list like the big hotels do. You can't depend on the guests to take valuable time out of their vacation or business trip to come down and complain about stuff that you should have fixed. Especially guest safety, with only a hole to remind one of a removed/broken chain, with no backup locking.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33091-d1146967-r130363843-Rodeway_Inn_Signal_Hill-Signal_Hill_California.html</t>
+  </si>
+  <si>
+    <t>130363843</t>
+  </si>
+  <si>
+    <t>05/21/2012</t>
+  </si>
+  <si>
+    <t>BED BUGS IN RM. 241&amp; 238!!!!!!!!</t>
+  </si>
+  <si>
+    <t>This place has BED BUGS!!!! My friend was bitten all over her face, arms, back, chest and legs. The rooms smoke like smoke, mildew, and God knows whatever else was going on. I would never recommend this place. There are BED BUGS HERE, RUN!!!</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33091-d1146967-r123278256-Rodeway_Inn_Signal_Hill-Signal_Hill_California.html</t>
+  </si>
+  <si>
+    <t>123278256</t>
+  </si>
+  <si>
+    <t>01/18/2012</t>
+  </si>
+  <si>
+    <t>Good value and clean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newer bedding, carpet and paint improved this property. I would stay again if in area. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33091-d1146967-r22804241-Rodeway_Inn_Signal_Hill-Signal_Hill_California.html</t>
+  </si>
+  <si>
+    <t>22804241</t>
+  </si>
+  <si>
+    <t>12/17/2008</t>
+  </si>
+  <si>
+    <t>Not recommended</t>
+  </si>
+  <si>
+    <t>Stuck in the middle of nowhere that you would want to be. The pool is tiny and grubby, there is graffiti on the outside of the hotel and there is an unpleasant odour in the reception. The rooms are small, smell damp and had stained bedding. We decided not to stay but were charged anyway thanks to hotels.com.Wont be booking through them again!</t>
+  </si>
+  <si>
+    <t>August 2008</t>
   </si>
 </sst>
 </file>
@@ -648,6 +859,591 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1991</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="n">
+        <v>2</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
+        <v>2</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1991</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1991</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O4" t="s">
+        <v>69</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1991</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>76</v>
+      </c>
+      <c r="O5" t="s">
+        <v>69</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2</v>
+      </c>
+      <c r="R5" t="n">
+        <v>3</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>3</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1991</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>83</v>
+      </c>
+      <c r="O6" t="s">
+        <v>84</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" t="n">
+        <v>3</v>
+      </c>
+      <c r="S6" t="n">
+        <v>4</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>3</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1991</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L7" t="s">
+        <v>90</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>91</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>92</v>
+      </c>
+      <c r="X7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1991</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>96</v>
+      </c>
+      <c r="J8" t="s">
+        <v>97</v>
+      </c>
+      <c r="K8" t="s">
+        <v>98</v>
+      </c>
+      <c r="L8" t="s">
+        <v>99</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>100</v>
+      </c>
+      <c r="O8" t="s">
+        <v>101</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="n">
+        <v>3</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1991</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>103</v>
+      </c>
+      <c r="J9" t="s">
+        <v>104</v>
+      </c>
+      <c r="K9" t="s">
+        <v>105</v>
+      </c>
+      <c r="L9" t="s">
+        <v>106</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s"/>
+      <c r="O9" t="s"/>
+      <c r="P9" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>4</v>
+      </c>
+      <c r="R9" t="n">
+        <v>4</v>
+      </c>
+      <c r="S9" t="n">
+        <v>4</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1991</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>107</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>108</v>
+      </c>
+      <c r="J10" t="s">
+        <v>109</v>
+      </c>
+      <c r="K10" t="s">
+        <v>110</v>
+      </c>
+      <c r="L10" t="s">
+        <v>111</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>112</v>
+      </c>
+      <c r="O10" t="s">
+        <v>101</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>111</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_683.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_683.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="122">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Susie H</t>
+  </si>
+  <si>
     <t>07/10/2018</t>
   </si>
   <si>
@@ -183,6 +186,9 @@
     <t>The room was not very clean.  There was a paper towel hanging from the peep-hole, an old toothbrush in the window of the bathroom and the smoke detector had been removed from the room.  It looked like a new a/c unit had been installed but it was smaller than the old one so there was space all around the unit.  Instead of sealing it, a small piece of foam was pushed around the opening.  The street noise was so loud we couldn't sleep.  It sounded like we had left the sliding glass door open but it was just the noise seeping in around the a/c opening. The person working the counter could not find our reservation even though we had a print out of the online reservation and payment.  It is a good thing we had prepaid because we went to checkout at 7:30 am and the office was locked and closed even though the sign said OPEN.  We won't be coming back.More</t>
   </si>
   <si>
+    <t>HotelGuruGirl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33091-d1146967-r256278914-Rodeway_Inn_Signal_Hill-Signal_Hill_California.html</t>
   </si>
   <si>
@@ -205,6 +211,9 @@
   </si>
   <si>
     <t>This hotel needs a major renovation.The rooms aren't super big.New front and bathroom doors are needed.Our room had no smoke detector.Crummy cable reception.Slow choppy wifi.The tv was big enough for the room but they need more and better channels.Sliding door to balcony was broken.the ac/heater was incredibly noisy and kept going on and off all the time.Nearly all the furniture had been drawn on and carved into. Chairs had stains all over.Sliding patio door and bathroom door were broken.Carpet needs a good shampoo.All the weather stripping at the front door had been torn off making the room drafty.the bed was not too bad and they gave you adequate blankets.Gave 2 stars for the staff being friendly and the view of long beach was nice.More</t>
+  </si>
+  <si>
+    <t>dbr2013</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33091-d1146967-r223021242-Rodeway_Inn_Signal_Hill-Signal_Hill_California.html</t>
@@ -233,6 +242,9 @@
 The shower had traces of black mold, calcium build up on the shower head and the train area could have used some cleaning.  The microwave was missing the glass plate to put stuff of so it was pretty much useless.  It faces traffic on the street so it is a bit noisy and occasionally emergency vehicle come by with...I used points to stay here as I have accumulated allot and it was for one night.  I went to check in and it seemed the desk person was confused.  She had to get on the phone and call someone.  I seemed that either they were not expecting me or they were not sure what to do with me.  She gave me a room at the very end of the building .  The elevator had scratches all over it.  The fire extinguisher box near the elevator had no fire extinguisher.  I got to the room and it was marginal.  Paint pealing and chipped.  A/C had dust and what appeared to be light mold in the vent area(it is mounted in the wall near the arcadia door) To turn on the A/C, kind of an old unit, you had to find the on/off switch at the base of where it plugs into the wall.  It worked OK but had a funny smell. Oh, and by the way they do not have coffee in the lobby till 7 AM so don't expect any.The shower had traces of black mold, calcium build up on the shower head and the train area could have used some cleaning.  The microwave was missing the glass plate to put stuff of so it was pretty much useless.  It faces traffic on the street so it is a bit noisy and occasionally emergency vehicle come by with sirens blaring.  The blanket had a number written on it, sort of like a prison.  The bed was ok and appeared clean.I was up at 5 AM to the discovery that the local police had the place surrounded and had I been parked in back I might not have been able to leave.It seems that instead of giving a Gold Member a nice room, since they had to provide it for free they found the worst room.  So imagine how they treat everyday customers.  WILL NEVER STAY HERE AGAIN!!!More</t>
   </si>
   <si>
+    <t>pbbeck</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33091-d1146967-r191717768-Rodeway_Inn_Signal_Hill-Signal_Hill_California.html</t>
   </si>
   <si>
@@ -254,6 +266,9 @@
     <t>I just spent four nights at the Rodeway Inn in Signal Hill while in Long Beach for a long, long weekend. While the room itself was basically acceptable, the hotel as a whole is dirty looking and reflects an overall lack of pride in this property.  Two-inch thick bulletproof glass greets you in the lobby. Nothing says "welcome" like bulletproof glass.  It's interesting that management is concerned about safety in the lobby, but there are no security chains on the room doors. There's a lot of peeling paint on the building and in the rooms.  My king-size bed was basically comfortable, but the sheets were very thin and my non-smoking room had a constant cloud of cigarette and marijuana smoke wafting in from other rooms. The air conditioner worked, but was extremely loud.In the bathroom, there were plenty of towels, but each day there was at least one towel that did not appear to be clean. They had makeup stains or crusted material on them.More</t>
   </si>
   <si>
+    <t>SRCIsrael</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33091-d1146967-r183294269-Rodeway_Inn_Signal_Hill-Signal_Hill_California.html</t>
   </si>
   <si>
@@ -276,6 +291,9 @@
   </si>
   <si>
     <t>Stayed here 4 nights while on a business trip. Overall, although the place looks a bit tired and rundown on outside, it is fairly comfortable inside. The room was fair sized with table to work at and internet worked, although not superfast. Although it is on a busy street and I am sensitive to noise, with A/C on I barely heard the traffic.The room was clean, although certainly not new and did smell a bit of smoke (or something) even though it was nonsmoking room.The fridge was plenty big (although no freezer section), did not try MW, but the phone did not work. These days, that is not so important but perhaps indicative of maintenance level. Another technical problem was that when I paid (in cash) upon arrival they could not give me a receipt because their printer was broken. By the time I left, it was still broken but they did get me an electronic version. Since a new printer can be had for about $100 and it seems rather important for a business like this does not give impression that they are investing much into the place.So the motel was OK, but nothing special, and less than half price of a hotel room downtown.If I were in Long Beach again may try one of the places closer in (further west and closer to Long Beach Ave), there seem to be quite a few.More</t>
+  </si>
+  <si>
+    <t>airebornranger</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33091-d1146967-r169548954-Rodeway_Inn_Signal_Hill-Signal_Hill_California.html</t>
@@ -307,6 +325,9 @@
 Down~Broken/missing smoke detector. No security chain on door! No "Do not disturb" sign in the room! (*Without it the maid kept bugging us to clean the room on our first day at 0930 &amp; 1000 hrs. Too long a wait for hot water on 2nd floor,`it has no recirculator pump, or they turned it off. Rotten water saver shower head, which made it next to impossible to wash shampoo out of my ladies hair, or to even feel more than a trickle! No fitted sheets or clips to hold them on, so they keep coming off. A real uncomfortable pain to sleep or have fun. Pay for ice~$0.50 for small room size ice bucket. Bad fight back springy foam pillows~A little better than the horrible ones in the Choice Hotels chain. (*Went out...It was a really busy weekend, mid-summer, with the surfing championships too, so the town, and all around were full. As a last resort I stayed here on the 2nd floor from 7/27-7/28-13, and it has big ups and downs. Ups~Very clean room! Fairly quiet section of a really busy street, except for the usual showing off of loud muffler cars, on the PCH. Good A/C wall unit~loud enough so it drowned out the cars. Less traffic on weekends, as mostly weekday businesses in this area. Large 42" Visio LCD TV, granite sink, new toilet, OK tub, nice carpet, large room refrigerator, microwave, action bed for fun. Down~Broken/missing smoke detector. No security chain on door! No "Do not disturb" sign in the room! (*Without it the maid kept bugging us to clean the room on our first day at 0930 &amp; 1000 hrs. Too long a wait for hot water on 2nd floor,`it has no recirculator pump, or they turned it off. Rotten water saver shower head, which made it next to impossible to wash shampoo out of my ladies hair, or to even feel more than a trickle! No fitted sheets or clips to hold them on, so they keep coming off. A real uncomfortable pain to sleep or have fun. Pay for ice~$0.50 for small room size ice bucket. Bad fight back springy foam pillows~A little better than the horrible ones in the Choice Hotels chain. (*Went out to IKEA and bought their 90% feather &amp; 10% down for $12.) Hard spring mattress which made for a long two days on bad shoulders. No pen and paper, no kleenex, no hair dryer, broken back roller on sliding patio door. (*Patio is worthless, as it is too small for anything.) Worn out door roller "SCREECHING" on their Otis elevator, no exhaust fan in bathroom, no alarm clock, no heated pool. ''HORRIBLE COFFEE" which was their only beverage, or food. Would I stay here again? It is better than the "YMCA" but even motel 6 has better staff checking for needed repairs. This hotel needs a big dose of quality control! Granted it is managed by Indian's who may not be that picky, but as a former Master Inspector of Structures, come on, "Common Sense tells you when something is broken, write it down to fix it, and do it!" Give your cleaning crew a maintenance sheet to-do-list like the big hotels do. You can't depend on the guests to take valuable time out of their vacation or business trip to come down and complain about stuff that you should have fixed. Especially guest safety, with only a hole to remind one of a removed/broken chain, with no backup locking.More</t>
   </si>
   <si>
+    <t>Aaron H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33091-d1146967-r130363843-Rodeway_Inn_Signal_Hill-Signal_Hill_California.html</t>
   </si>
   <si>
@@ -328,6 +349,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>gkinaz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33091-d1146967-r123278256-Rodeway_Inn_Signal_Hill-Signal_Hill_California.html</t>
   </si>
   <si>
@@ -341,6 +365,9 @@
   </si>
   <si>
     <t xml:space="preserve">Newer bedding, carpet and paint improved this property. I would stay again if in area. </t>
+  </si>
+  <si>
+    <t>Mark G</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33091-d1146967-r22804241-Rodeway_Inn_Signal_Hill-Signal_Hill_California.html</t>
@@ -863,43 +890,47 @@
       <c r="A2" t="n">
         <v>1991</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>2</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="n">
@@ -919,50 +950,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>1991</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M3" t="n">
         <v>2</v>
       </c>
       <c r="N3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -976,50 +1011,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>1991</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="n">
@@ -1039,50 +1078,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>1991</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>74</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="J5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="L5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M5" t="n">
         <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="O5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P5" t="n">
         <v>2</v>
@@ -1106,50 +1149,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>1991</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>82</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="J6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="L6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="O6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="P6" t="n">
         <v>4</v>
@@ -1173,50 +1220,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>1991</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>91</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="J7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="K7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="L7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="M7" t="n">
         <v>2</v>
       </c>
       <c r="N7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P7" t="n">
         <v>1</v>
@@ -1238,56 +1289,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="X7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="Y7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>1991</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>101</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="J8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="K8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="L8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="O8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P8" t="n">
         <v>1</v>
@@ -1311,41 +1366,45 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>1991</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>109</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="J9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="K9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="L9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
@@ -1374,50 +1433,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>1991</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>115</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
+        <v>117</v>
+      </c>
+      <c r="J10" t="s">
+        <v>118</v>
+      </c>
+      <c r="K10" t="s">
+        <v>119</v>
+      </c>
+      <c r="L10" t="s">
+        <v>120</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>121</v>
+      </c>
+      <c r="O10" t="s">
         <v>108</v>
-      </c>
-      <c r="J10" t="s">
-        <v>109</v>
-      </c>
-      <c r="K10" t="s">
-        <v>110</v>
-      </c>
-      <c r="L10" t="s">
-        <v>111</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="s">
-        <v>112</v>
-      </c>
-      <c r="O10" t="s">
-        <v>101</v>
       </c>
       <c r="P10" t="n">
         <v>1</v>
@@ -1441,7 +1504,7 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
